--- a/PAL2.xlsx
+++ b/PAL2.xlsx
@@ -401,14 +401,6 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">

--- a/PAL2.xlsx
+++ b/PAL2.xlsx
@@ -397,17 +397,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -426,6 +430,18 @@
       <c r="E1" t="str">
         <v/>
       </c>
+      <c r="F1" t="str">
+        <v>May-24</v>
+      </c>
+      <c r="G1" t="str">
+        <v/>
+      </c>
+      <c r="H1" t="str">
+        <v/>
+      </c>
+      <c r="I1" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -441,6 +457,18 @@
         <v>Value</v>
       </c>
       <c r="E2" t="str">
+        <v>Rate</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Cost %</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Qty</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Value</v>
+      </c>
+      <c r="I2" t="str">
         <v>Rate</v>
       </c>
     </row>
@@ -460,6 +488,18 @@
       <c r="E3" t="str">
         <v>103.53</v>
       </c>
+      <c r="F3" t="str">
+        <v>55%</v>
+      </c>
+      <c r="G3">
+        <v>176401</v>
+      </c>
+      <c r="H3">
+        <v>17981704</v>
+      </c>
+      <c r="I3" t="str">
+        <v>101.94</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -477,6 +517,18 @@
       <c r="E4" t="str">
         <v>93.17</v>
       </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4">
+        <v>142379.9</v>
+      </c>
+      <c r="H4">
+        <v>13105538.64</v>
+      </c>
+      <c r="I4" t="str">
+        <v>92.05</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -494,6 +546,18 @@
       <c r="E5" t="str">
         <v>138.82</v>
       </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5">
+        <v>7416</v>
+      </c>
+      <c r="H5">
+        <v>1010633</v>
+      </c>
+      <c r="I5" t="str">
+        <v>136.28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -511,6 +575,18 @@
       <c r="E6" t="str">
         <v>210.11</v>
       </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6">
+        <v>24415</v>
+      </c>
+      <c r="H6">
+        <v>4649643</v>
+      </c>
+      <c r="I6" t="str">
+        <v>190.44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -528,6 +604,18 @@
       <c r="E7" t="str">
         <v>101.94</v>
       </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7">
+        <v>193921</v>
+      </c>
+      <c r="H7">
+        <v>19471496</v>
+      </c>
+      <c r="I7" t="str">
+        <v>100.41</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -537,13 +625,25 @@
         <v/>
       </c>
       <c r="C8">
-        <v>38030</v>
+        <v>37950</v>
       </c>
       <c r="D8">
-        <v>3715950</v>
+        <v>3698350</v>
       </c>
       <c r="E8" t="str">
-        <v>97.71</v>
+        <v>97.45</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8">
+        <v>54225</v>
+      </c>
+      <c r="H8">
+        <v>5235425</v>
+      </c>
+      <c r="I8" t="str">
+        <v>96.55</v>
       </c>
     </row>
     <row r="9">
@@ -562,6 +662,18 @@
       <c r="E9" t="str">
         <v>159.11</v>
       </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9">
+        <v>7896</v>
+      </c>
+      <c r="H9">
+        <v>1242959</v>
+      </c>
+      <c r="I9" t="str">
+        <v>157.42</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -579,6 +691,18 @@
       <c r="E10" t="str">
         <v>248.96</v>
       </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10">
+        <v>24415</v>
+      </c>
+      <c r="H10">
+        <v>6078358</v>
+      </c>
+      <c r="I10" t="str">
+        <v>248.96</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -588,13 +712,25 @@
         <v/>
       </c>
       <c r="C11">
-        <v>60486</v>
+        <v>60566</v>
       </c>
       <c r="D11">
-        <v>14812633</v>
+        <v>14830233</v>
       </c>
       <c r="E11" t="str">
-        <v>244.89</v>
+        <v>244.86</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11">
+        <v>81691</v>
+      </c>
+      <c r="H11">
+        <v>20391750</v>
+      </c>
+      <c r="I11" t="str">
+        <v>249.62</v>
       </c>
     </row>
     <row r="12">
@@ -613,6 +749,18 @@
       <c r="E12" t="str">
         <v/>
       </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12">
+        <v>32948492</v>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -630,6 +778,18 @@
       <c r="E13" t="str">
         <v/>
       </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -647,6 +807,18 @@
       <c r="E14" t="str">
         <v/>
       </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -664,6 +836,18 @@
       <c r="E15" t="str">
         <v>10.00</v>
       </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15">
+        <v>4134</v>
+      </c>
+      <c r="H15">
+        <v>41340</v>
+      </c>
+      <c r="I15" t="str">
+        <v>10.00</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -681,6 +865,18 @@
       <c r="E16" t="str">
         <v/>
       </c>
+      <c r="F16" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -698,6 +894,18 @@
       <c r="E17" t="str">
         <v/>
       </c>
+      <c r="F17" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -715,6 +923,18 @@
       <c r="E18" t="str">
         <v/>
       </c>
+      <c r="F18" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -732,6 +952,18 @@
       <c r="E19" t="str">
         <v>102.84</v>
       </c>
+      <c r="F19" t="str">
+        <v>2%</v>
+      </c>
+      <c r="G19">
+        <v>8271.5</v>
+      </c>
+      <c r="H19">
+        <v>616661</v>
+      </c>
+      <c r="I19" t="str">
+        <v>74.55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -749,6 +981,18 @@
       <c r="E20" t="str">
         <v>78.86</v>
       </c>
+      <c r="F20" t="str">
+        <v>13%</v>
+      </c>
+      <c r="G20">
+        <v>52769.8</v>
+      </c>
+      <c r="H20">
+        <v>4168133</v>
+      </c>
+      <c r="I20" t="str">
+        <v>78.99</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -766,6 +1010,18 @@
       <c r="E21" t="str">
         <v/>
       </c>
+      <c r="F21" t="str">
+        <v>15%</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -783,6 +1039,18 @@
       <c r="E22" t="str">
         <v/>
       </c>
+      <c r="F22" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -800,6 +1068,18 @@
       <c r="E23" t="str">
         <v/>
       </c>
+      <c r="F23" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -817,6 +1097,18 @@
       <c r="E24" t="str">
         <v/>
       </c>
+      <c r="F24" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -834,6 +1126,18 @@
       <c r="E25" t="str">
         <v/>
       </c>
+      <c r="F25" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -851,6 +1155,18 @@
       <c r="E26" t="str">
         <v/>
       </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -868,6 +1184,18 @@
       <c r="E27" t="str">
         <v/>
       </c>
+      <c r="F27" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27">
+        <v>125000</v>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -885,6 +1213,18 @@
       <c r="E28" t="str">
         <v/>
       </c>
+      <c r="F28" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -902,6 +1242,18 @@
       <c r="E29" t="str">
         <v/>
       </c>
+      <c r="F29" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -919,6 +1271,18 @@
       <c r="E30" t="str">
         <v/>
       </c>
+      <c r="F30" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -936,6 +1300,18 @@
       <c r="E31" t="str">
         <v/>
       </c>
+      <c r="F31" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -953,6 +1329,18 @@
       <c r="E32" t="str">
         <v/>
       </c>
+      <c r="F32" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -970,6 +1358,18 @@
       <c r="E33" t="str">
         <v/>
       </c>
+      <c r="F33" t="str">
+        <v>0%</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -987,6 +1387,18 @@
       <c r="E34" t="str">
         <v/>
       </c>
+      <c r="F34" t="str">
+        <v>15%</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1004,10 +1416,22 @@
       <c r="E35" t="str">
         <v/>
       </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I35"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/PAL2.xlsx
+++ b/PAL2.xlsx
@@ -64,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,9 +398,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
@@ -408,10 +409,6 @@
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -419,7 +416,7 @@
         <v>Particulars</v>
       </c>
       <c r="B1" t="str">
-        <v>Apr-24</v>
+        <v>Jan-25</v>
       </c>
       <c r="C1" t="str">
         <v/>
@@ -428,18 +425,6 @@
         <v/>
       </c>
       <c r="E1" t="str">
-        <v/>
-      </c>
-      <c r="F1" t="str">
-        <v>May-24</v>
-      </c>
-      <c r="G1" t="str">
-        <v/>
-      </c>
-      <c r="H1" t="str">
-        <v/>
-      </c>
-      <c r="I1" t="str">
         <v/>
       </c>
     </row>
@@ -457,18 +442,6 @@
         <v>Value</v>
       </c>
       <c r="E2" t="str">
-        <v>Rate</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Cost %</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Qty</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Value</v>
-      </c>
-      <c r="I2" t="str">
         <v>Rate</v>
       </c>
     </row>
@@ -477,28 +450,16 @@
         <v>Op Stk RM Only</v>
       </c>
       <c r="B3" t="str">
-        <v>64%</v>
+        <v>56%</v>
       </c>
       <c r="C3">
-        <v>166266</v>
+        <v>207057</v>
       </c>
       <c r="D3">
-        <v>17212806</v>
+        <v>20755029</v>
       </c>
       <c r="E3" t="str">
-        <v>103.53</v>
-      </c>
-      <c r="F3" t="str">
-        <v>55%</v>
-      </c>
-      <c r="G3">
-        <v>176401</v>
-      </c>
-      <c r="H3">
-        <v>17981704</v>
-      </c>
-      <c r="I3" t="str">
-        <v>101.94</v>
+        <v>100.24</v>
       </c>
     </row>
     <row r="4">
@@ -509,25 +470,13 @@
         <v/>
       </c>
       <c r="C4">
-        <v>114648</v>
+        <v>111581.7</v>
       </c>
       <c r="D4">
-        <v>10681581</v>
+        <v>10564778.8</v>
       </c>
       <c r="E4" t="str">
-        <v>93.17</v>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4">
-        <v>142379.9</v>
-      </c>
-      <c r="H4">
-        <v>13105538.64</v>
-      </c>
-      <c r="I4" t="str">
-        <v>92.05</v>
+        <v>94.68</v>
       </c>
     </row>
     <row r="5">
@@ -538,25 +487,13 @@
         <v/>
       </c>
       <c r="C5">
-        <v>8391</v>
+        <v>9781</v>
       </c>
       <c r="D5">
-        <v>1164866</v>
+        <v>1553245</v>
       </c>
       <c r="E5" t="str">
-        <v>138.82</v>
-      </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5">
-        <v>7416</v>
-      </c>
-      <c r="H5">
-        <v>1010633</v>
-      </c>
-      <c r="I5" t="str">
-        <v>136.28</v>
+        <v>158.80</v>
       </c>
     </row>
     <row r="6">
@@ -567,25 +504,13 @@
         <v/>
       </c>
       <c r="C6">
-        <v>28885</v>
+        <v>43826</v>
       </c>
       <c r="D6">
-        <v>6068967</v>
+        <v>8384727</v>
       </c>
       <c r="E6" t="str">
-        <v>210.11</v>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6">
-        <v>24415</v>
-      </c>
-      <c r="H6">
-        <v>4649643</v>
-      </c>
-      <c r="I6" t="str">
-        <v>190.44</v>
+        <v>191.32</v>
       </c>
     </row>
     <row r="7">
@@ -596,25 +521,13 @@
         <v/>
       </c>
       <c r="C7">
-        <v>176401</v>
+        <v>199573</v>
       </c>
       <c r="D7">
-        <v>17981704</v>
+        <v>20132197</v>
       </c>
       <c r="E7" t="str">
-        <v>101.94</v>
-      </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7">
-        <v>193921</v>
-      </c>
-      <c r="H7">
-        <v>19471496</v>
-      </c>
-      <c r="I7" t="str">
-        <v>100.41</v>
+        <v>100.88</v>
       </c>
     </row>
     <row r="8">
@@ -625,25 +538,13 @@
         <v/>
       </c>
       <c r="C8">
-        <v>37950</v>
+        <v>39205</v>
       </c>
       <c r="D8">
-        <v>3698350</v>
+        <v>3785580</v>
       </c>
       <c r="E8" t="str">
-        <v>97.45</v>
-      </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8">
-        <v>54225</v>
-      </c>
-      <c r="H8">
-        <v>5235425</v>
-      </c>
-      <c r="I8" t="str">
-        <v>96.55</v>
+        <v>96.56</v>
       </c>
     </row>
     <row r="9">
@@ -654,25 +555,13 @@
         <v/>
       </c>
       <c r="C9">
-        <v>7663</v>
+        <v>9764</v>
       </c>
       <c r="D9">
-        <v>1219263</v>
+        <v>1795766</v>
       </c>
       <c r="E9" t="str">
-        <v>159.11</v>
-      </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9">
-        <v>7896</v>
-      </c>
-      <c r="H9">
-        <v>1242959</v>
-      </c>
-      <c r="I9" t="str">
-        <v>157.42</v>
+        <v>183.92</v>
       </c>
     </row>
     <row r="10">
@@ -683,24 +572,12 @@
         <v/>
       </c>
       <c r="C10">
-        <v>28885</v>
+        <v>43826</v>
       </c>
       <c r="D10">
-        <v>7191210</v>
+        <v>10910921</v>
       </c>
       <c r="E10" t="str">
-        <v>248.96</v>
-      </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
-      <c r="G10">
-        <v>24415</v>
-      </c>
-      <c r="H10">
-        <v>6078358</v>
-      </c>
-      <c r="I10" t="str">
         <v>248.96</v>
       </c>
     </row>
@@ -712,25 +589,13 @@
         <v/>
       </c>
       <c r="C11">
-        <v>60566</v>
+        <v>84356</v>
       </c>
       <c r="D11">
-        <v>14830233</v>
+        <v>20356065</v>
       </c>
       <c r="E11" t="str">
-        <v>244.86</v>
-      </c>
-      <c r="F11" t="str">
-        <v/>
-      </c>
-      <c r="G11">
-        <v>81691</v>
-      </c>
-      <c r="H11">
-        <v>20391750</v>
-      </c>
-      <c r="I11" t="str">
-        <v>249.62</v>
+        <v>241.31</v>
       </c>
     </row>
     <row r="12">
@@ -740,26 +605,14 @@
       <c r="B12" t="str">
         <v/>
       </c>
-      <c r="C12" t="str">
-        <v/>
+      <c r="C12">
+        <v>177150.8</v>
       </c>
       <c r="D12">
-        <v>26939056</v>
+        <v>36848332</v>
       </c>
       <c r="E12" t="str">
-        <v/>
-      </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-      <c r="H12">
-        <v>32948492</v>
-      </c>
-      <c r="I12" t="str">
-        <v/>
+        <v>208.01</v>
       </c>
     </row>
     <row r="13">
@@ -769,25 +622,13 @@
       <c r="B13" t="str">
         <v/>
       </c>
-      <c r="C13" t="str">
-        <v/>
-      </c>
-      <c r="D13" t="str">
-        <v/>
+      <c r="C13">
+        <v>9510</v>
+      </c>
+      <c r="D13">
+        <v>2274381</v>
       </c>
       <c r="E13" t="str">
-        <v/>
-      </c>
-      <c r="F13" t="str">
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <v/>
-      </c>
-      <c r="H13" t="str">
-        <v/>
-      </c>
-      <c r="I13" t="str">
         <v/>
       </c>
     </row>
@@ -807,18 +648,6 @@
       <c r="E14" t="str">
         <v/>
       </c>
-      <c r="F14" t="str">
-        <v/>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="str">
-        <v/>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -828,24 +657,12 @@
         <v/>
       </c>
       <c r="C15">
-        <v>3436</v>
+        <v>5060</v>
       </c>
       <c r="D15">
-        <v>34360</v>
+        <v>50600</v>
       </c>
       <c r="E15" t="str">
-        <v>10.00</v>
-      </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15">
-        <v>4134</v>
-      </c>
-      <c r="H15">
-        <v>41340</v>
-      </c>
-      <c r="I15" t="str">
         <v>10.00</v>
       </c>
     </row>
@@ -860,21 +677,9 @@
         <v/>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>28147</v>
       </c>
       <c r="E16" t="str">
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G16" t="str">
-        <v/>
-      </c>
-      <c r="H16">
-        <v>11</v>
-      </c>
-      <c r="I16" t="str">
         <v/>
       </c>
     </row>
@@ -888,22 +693,10 @@
       <c r="C17" t="str">
         <v/>
       </c>
-      <c r="D17" t="str">
-        <v/>
+      <c r="D17">
+        <v>2504170</v>
       </c>
       <c r="E17" t="str">
-        <v/>
-      </c>
-      <c r="F17" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G17" t="str">
-        <v/>
-      </c>
-      <c r="H17" t="str">
-        <v/>
-      </c>
-      <c r="I17" t="str">
         <v/>
       </c>
     </row>
@@ -917,22 +710,10 @@
       <c r="C18" t="str">
         <v/>
       </c>
-      <c r="D18" t="str">
-        <v/>
+      <c r="D18">
+        <v>1645943</v>
       </c>
       <c r="E18" t="str">
-        <v/>
-      </c>
-      <c r="F18" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G18" t="str">
-        <v/>
-      </c>
-      <c r="H18" t="str">
-        <v/>
-      </c>
-      <c r="I18" t="str">
         <v/>
       </c>
     </row>
@@ -941,28 +722,16 @@
         <v>In House Fabrn</v>
       </c>
       <c r="B19" t="str">
-        <v>3%</v>
+        <v>2%</v>
       </c>
       <c r="C19">
-        <v>6664.2</v>
+        <v>9344.7</v>
       </c>
       <c r="D19">
-        <v>685359</v>
+        <v>717244</v>
       </c>
       <c r="E19" t="str">
-        <v>102.84</v>
-      </c>
-      <c r="F19" t="str">
-        <v>2%</v>
-      </c>
-      <c r="G19">
-        <v>8271.5</v>
-      </c>
-      <c r="H19">
-        <v>616661</v>
-      </c>
-      <c r="I19" t="str">
-        <v>74.55</v>
+        <v>76.75</v>
       </c>
     </row>
     <row r="20">
@@ -970,28 +739,16 @@
         <v>Fabrication</v>
       </c>
       <c r="B20" t="str">
-        <v>13%</v>
+        <v>17%</v>
       </c>
       <c r="C20">
-        <v>45580.5</v>
+        <v>74639.2</v>
       </c>
       <c r="D20">
-        <v>3594644</v>
+        <v>6280942</v>
       </c>
       <c r="E20" t="str">
-        <v>78.86</v>
-      </c>
-      <c r="F20" t="str">
-        <v>13%</v>
-      </c>
-      <c r="G20">
-        <v>52769.8</v>
-      </c>
-      <c r="H20">
-        <v>4168133</v>
-      </c>
-      <c r="I20" t="str">
-        <v>78.99</v>
+        <v>84.15</v>
       </c>
     </row>
     <row r="21">
@@ -999,28 +756,16 @@
         <v>DIRECT COST</v>
       </c>
       <c r="B21" t="str">
-        <v>16%</v>
+        <v>19%</v>
       </c>
       <c r="C21" t="str">
         <v/>
       </c>
-      <c r="D21" t="str">
-        <v/>
+      <c r="D21">
+        <v>11148299</v>
       </c>
       <c r="E21" t="str">
-        <v/>
-      </c>
-      <c r="F21" t="str">
-        <v>15%</v>
-      </c>
-      <c r="G21" t="str">
-        <v/>
-      </c>
-      <c r="H21" t="str">
-        <v/>
-      </c>
-      <c r="I21" t="str">
-        <v/>
+        <v>62.93</v>
       </c>
     </row>
     <row r="22">
@@ -1039,18 +784,6 @@
       <c r="E22" t="str">
         <v/>
       </c>
-      <c r="F22" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G22" t="str">
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <v/>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -1062,22 +795,10 @@
       <c r="C23" t="str">
         <v/>
       </c>
-      <c r="D23" t="str">
-        <v/>
+      <c r="D23">
+        <v>532489</v>
       </c>
       <c r="E23" t="str">
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G23" t="str">
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <v/>
-      </c>
-      <c r="I23" t="str">
         <v/>
       </c>
     </row>
@@ -1091,22 +812,10 @@
       <c r="C24" t="str">
         <v/>
       </c>
-      <c r="D24" t="str">
-        <v/>
+      <c r="D24">
+        <v>53841</v>
       </c>
       <c r="E24" t="str">
-        <v/>
-      </c>
-      <c r="F24" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G24" t="str">
-        <v/>
-      </c>
-      <c r="H24" t="str">
-        <v/>
-      </c>
-      <c r="I24" t="str">
         <v/>
       </c>
     </row>
@@ -1120,23 +829,11 @@
       <c r="C25" t="str">
         <v/>
       </c>
-      <c r="D25" t="str">
-        <v/>
+      <c r="D25">
+        <v>586330</v>
       </c>
       <c r="E25" t="str">
-        <v/>
-      </c>
-      <c r="F25" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G25" t="str">
-        <v/>
-      </c>
-      <c r="H25" t="str">
-        <v/>
-      </c>
-      <c r="I25" t="str">
-        <v/>
+        <v>3.31</v>
       </c>
     </row>
     <row r="26">
@@ -1149,22 +846,10 @@
       <c r="C26" t="str">
         <v/>
       </c>
-      <c r="D26" t="str">
-        <v/>
+      <c r="D26">
+        <v>1792486.200000003</v>
       </c>
       <c r="E26" t="str">
-        <v/>
-      </c>
-      <c r="F26" t="str">
-        <v/>
-      </c>
-      <c r="G26" t="str">
-        <v/>
-      </c>
-      <c r="H26" t="str">
-        <v/>
-      </c>
-      <c r="I26" t="str">
         <v/>
       </c>
     </row>
@@ -1184,18 +869,6 @@
       <c r="E27" t="str">
         <v/>
       </c>
-      <c r="F27" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G27" t="str">
-        <v/>
-      </c>
-      <c r="H27">
-        <v>125000</v>
-      </c>
-      <c r="I27" t="str">
-        <v/>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1207,22 +880,10 @@
       <c r="C28" t="str">
         <v/>
       </c>
-      <c r="D28" t="str">
-        <v/>
+      <c r="D28">
+        <v>728299</v>
       </c>
       <c r="E28" t="str">
-        <v/>
-      </c>
-      <c r="F28" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G28" t="str">
-        <v/>
-      </c>
-      <c r="H28" t="str">
-        <v/>
-      </c>
-      <c r="I28" t="str">
         <v/>
       </c>
     </row>
@@ -1242,18 +903,6 @@
       <c r="E29" t="str">
         <v/>
       </c>
-      <c r="F29" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G29" t="str">
-        <v/>
-      </c>
-      <c r="H29" t="str">
-        <v/>
-      </c>
-      <c r="I29" t="str">
-        <v/>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1265,22 +914,10 @@
       <c r="C30" t="str">
         <v/>
       </c>
-      <c r="D30" t="str">
-        <v/>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v/>
-      </c>
-      <c r="F30" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G30" t="str">
-        <v/>
-      </c>
-      <c r="H30" t="str">
-        <v/>
-      </c>
-      <c r="I30" t="str">
         <v/>
       </c>
     </row>
@@ -1294,22 +931,10 @@
       <c r="C31" t="str">
         <v/>
       </c>
-      <c r="D31" t="str">
-        <v/>
+      <c r="D31">
+        <v>216333</v>
       </c>
       <c r="E31" t="str">
-        <v/>
-      </c>
-      <c r="F31" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G31" t="str">
-        <v/>
-      </c>
-      <c r="H31" t="str">
-        <v/>
-      </c>
-      <c r="I31" t="str">
         <v/>
       </c>
     </row>
@@ -1323,22 +948,10 @@
       <c r="C32" t="str">
         <v/>
       </c>
-      <c r="D32" t="str">
-        <v/>
+      <c r="D32">
+        <v>944632</v>
       </c>
       <c r="E32" t="str">
-        <v/>
-      </c>
-      <c r="F32" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G32" t="str">
-        <v/>
-      </c>
-      <c r="H32" t="str">
-        <v/>
-      </c>
-      <c r="I32" t="str">
         <v/>
       </c>
     </row>
@@ -1352,22 +965,10 @@
       <c r="C33" t="str">
         <v/>
       </c>
-      <c r="D33" t="str">
-        <v/>
+      <c r="D33">
+        <v>1069632</v>
       </c>
       <c r="E33" t="str">
-        <v/>
-      </c>
-      <c r="F33" t="str">
-        <v>0%</v>
-      </c>
-      <c r="G33" t="str">
-        <v/>
-      </c>
-      <c r="H33" t="str">
-        <v/>
-      </c>
-      <c r="I33" t="str">
         <v/>
       </c>
     </row>
@@ -1376,27 +977,15 @@
         <v>Total Expns</v>
       </c>
       <c r="B34" t="str">
-        <v>16%</v>
+        <v>19%</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
-      <c r="D34" t="str">
-        <v/>
+      <c r="D34" s="1">
+        <v>1000</v>
       </c>
       <c r="E34" t="str">
-        <v/>
-      </c>
-      <c r="F34" t="str">
-        <v>15%</v>
-      </c>
-      <c r="G34" t="str">
-        <v/>
-      </c>
-      <c r="H34" t="str">
-        <v/>
-      </c>
-      <c r="I34" t="str">
         <v/>
       </c>
     </row>
@@ -1410,28 +999,16 @@
       <c r="C35" t="str">
         <v/>
       </c>
-      <c r="D35" t="str">
-        <v/>
+      <c r="D35">
+        <v>722854.200000003</v>
       </c>
       <c r="E35" t="str">
-        <v/>
-      </c>
-      <c r="F35" t="str">
-        <v/>
-      </c>
-      <c r="G35" t="str">
-        <v/>
-      </c>
-      <c r="H35" t="str">
-        <v/>
-      </c>
-      <c r="I35" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E35"/>
   </ignoredErrors>
 </worksheet>
 </file>